--- a/templates/FRA_2025.xlsx
+++ b/templates/FRA_2025.xlsx
@@ -16,7 +16,7 @@
     <definedName name="_ftnref1" localSheetId="0">Лист1!$A$31</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$N$55</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -396,7 +396,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -416,116 +416,119 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -831,8 +834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q55"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A45" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K54" sqref="A1:N54"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="11.4"/>
@@ -855,1003 +858,1001 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
     </row>
     <row r="2" spans="1:14" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
     </row>
     <row r="3" spans="1:14" ht="15" customHeight="1" thickBot="1">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
       <c r="K3" s="5"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="38"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="21"/>
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1" thickBot="1">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
       <c r="K4" s="5"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="40"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="23"/>
     </row>
     <row r="5" spans="1:14" ht="15" customHeight="1" thickBot="1">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
       <c r="K5" s="5"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="40"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="23"/>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1" thickBot="1">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
       <c r="K6" s="5"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="40"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="23"/>
     </row>
     <row r="7" spans="1:14" ht="15" customHeight="1" thickBot="1">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
       <c r="K7" s="5"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="40"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="23"/>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1" thickBot="1">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
       <c r="K8" s="5"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="40"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="23"/>
     </row>
     <row r="9" spans="1:14" ht="15" customHeight="1" thickBot="1">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
       <c r="K9" s="5"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="42"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="23"/>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1" thickBot="1">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="35"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="26"/>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1" thickBot="1">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="43"/>
+      <c r="A11" s="44"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
     </row>
     <row r="12" spans="1:14" ht="25.05" customHeight="1" thickBot="1">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="43"/>
     </row>
     <row r="13" spans="1:14" ht="43.2" customHeight="1" thickBot="1">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="13" t="s">
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="14"/>
-      <c r="H13" s="13" t="s">
+      <c r="G13" s="27"/>
+      <c r="H13" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="13" t="s">
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="N13" s="14"/>
+      <c r="N13" s="27"/>
     </row>
     <row r="14" spans="1:14" ht="42" customHeight="1" thickBot="1">
-      <c r="A14" s="15"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="8"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="14"/>
     </row>
     <row r="15" spans="1:14" ht="42" customHeight="1" thickBot="1">
-      <c r="A15" s="15"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="8"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="14"/>
     </row>
     <row r="16" spans="1:14" ht="42" customHeight="1" thickBot="1">
-      <c r="A16" s="15"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="8"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="14"/>
     </row>
     <row r="17" spans="1:17" ht="42" customHeight="1" thickBot="1">
-      <c r="A17" s="15"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="8"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="14"/>
     </row>
     <row r="18" spans="1:17" ht="35.1" customHeight="1" thickBot="1">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="28"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="38"/>
     </row>
     <row r="19" spans="1:17" s="2" customFormat="1" ht="45.75" customHeight="1" thickBot="1">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="13" t="s">
+      <c r="B19" s="16"/>
+      <c r="C19" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="13" t="s">
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="13" t="s">
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="N19" s="14"/>
+      <c r="N19" s="27"/>
     </row>
     <row r="20" spans="1:17" s="2" customFormat="1" ht="45.75" customHeight="1" thickBot="1">
-      <c r="A20" s="15"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="8"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="14"/>
     </row>
     <row r="21" spans="1:17" s="2" customFormat="1" ht="45.75" customHeight="1" thickBot="1">
-      <c r="A21" s="15"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="8"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="14"/>
     </row>
     <row r="22" spans="1:17" s="2" customFormat="1" ht="45.75" customHeight="1" thickBot="1">
-      <c r="A22" s="15"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="8"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="14"/>
     </row>
     <row r="23" spans="1:17" s="2" customFormat="1" ht="45.75" customHeight="1" thickBot="1">
-      <c r="A23" s="15"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="8"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="14"/>
     </row>
     <row r="24" spans="1:17" s="2" customFormat="1" ht="45.75" customHeight="1" thickBot="1">
-      <c r="A24" s="15"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="8"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="14"/>
     </row>
     <row r="25" spans="1:17" s="2" customFormat="1" ht="45.75" customHeight="1" thickBot="1">
-      <c r="A25" s="15"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="8"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="14"/>
     </row>
     <row r="26" spans="1:17" s="2" customFormat="1" ht="33.15" customHeight="1" thickBot="1">
-      <c r="A26" s="33" t="s">
+      <c r="A26" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="33"/>
-      <c r="M26" s="33"/>
-      <c r="N26" s="33"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="41"/>
+      <c r="N26" s="41"/>
     </row>
     <row r="27" spans="1:17" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" thickBot="1">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="13" t="s">
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="25" t="s">
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="J27" s="26"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="13" t="s">
+      <c r="J27" s="34"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="M27" s="19"/>
-      <c r="N27" s="14"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="27"/>
     </row>
     <row r="28" spans="1:17" s="2" customFormat="1" ht="31.95" customHeight="1" thickBot="1">
-      <c r="A28" s="15"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="16"/>
+      <c r="A28" s="10"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="12"/>
     </row>
     <row r="29" spans="1:17" s="2" customFormat="1" ht="31.95" customHeight="1" thickBot="1">
-      <c r="A29" s="15"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="18"/>
-      <c r="N29" s="16"/>
+      <c r="A29" s="10"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="12"/>
     </row>
     <row r="30" spans="1:17" s="2" customFormat="1" ht="31.95" customHeight="1" thickBot="1">
-      <c r="A30" s="15"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="15"/>
-      <c r="M30" s="18"/>
-      <c r="N30" s="16"/>
+      <c r="A30" s="10"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="12"/>
     </row>
     <row r="31" spans="1:17" ht="25.05" customHeight="1" thickBot="1">
-      <c r="A31" s="24" t="s">
+      <c r="A31" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="24"/>
-      <c r="N31" s="24"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="32"/>
+      <c r="M31" s="32"/>
+      <c r="N31" s="32"/>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
     </row>
     <row r="32" spans="1:17" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="13" t="s">
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E32" s="19"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="13" t="s">
+      <c r="E32" s="16"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="13" t="s">
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="L32" s="19"/>
-      <c r="M32" s="19"/>
-      <c r="N32" s="14"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="27"/>
     </row>
     <row r="33" spans="1:14" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="A33" s="15"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="20"/>
-      <c r="M33" s="20"/>
-      <c r="N33" s="8"/>
+      <c r="A33" s="10"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="28"/>
+      <c r="M33" s="28"/>
+      <c r="N33" s="14"/>
     </row>
     <row r="34" spans="1:14" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="A34" s="15"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="20"/>
-      <c r="M34" s="20"/>
-      <c r="N34" s="8"/>
+      <c r="A34" s="10"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="28"/>
+      <c r="M34" s="28"/>
+      <c r="N34" s="14"/>
     </row>
     <row r="35" spans="1:14" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="A35" s="15"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="20"/>
-      <c r="M35" s="20"/>
-      <c r="N35" s="8"/>
+      <c r="A35" s="10"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="28"/>
+      <c r="M35" s="28"/>
+      <c r="N35" s="14"/>
     </row>
     <row r="36" spans="1:14" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="A36" s="15"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="20"/>
-      <c r="M36" s="20"/>
-      <c r="N36" s="8"/>
+      <c r="A36" s="10"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="28"/>
+      <c r="M36" s="28"/>
+      <c r="N36" s="14"/>
     </row>
     <row r="37" spans="1:14" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="A37" s="15"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="20"/>
-      <c r="M37" s="20"/>
-      <c r="N37" s="8"/>
+      <c r="A37" s="10"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="28"/>
+      <c r="M37" s="28"/>
+      <c r="N37" s="14"/>
     </row>
     <row r="38" spans="1:14" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1">
-      <c r="A38" s="15"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="18"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="20"/>
-      <c r="M38" s="20"/>
-      <c r="N38" s="8"/>
+      <c r="A38" s="10"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="28"/>
+      <c r="M38" s="28"/>
+      <c r="N38" s="14"/>
     </row>
     <row r="39" spans="1:14" ht="25.05" customHeight="1">
-      <c r="A39" s="21" t="s">
+      <c r="A39" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="B39" s="21"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="21"/>
-      <c r="J39" s="21"/>
-      <c r="K39" s="21"/>
-      <c r="L39" s="21"/>
-      <c r="M39" s="21"/>
-      <c r="N39" s="21"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="29"/>
+      <c r="J39" s="29"/>
+      <c r="K39" s="29"/>
+      <c r="L39" s="29"/>
+      <c r="M39" s="29"/>
+      <c r="N39" s="29"/>
     </row>
     <row r="40" spans="1:14" ht="15" customHeight="1" thickBot="1">
-      <c r="A40" s="12"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="12"/>
-      <c r="L40" s="12"/>
-      <c r="M40" s="12"/>
-      <c r="N40" s="12"/>
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
     </row>
     <row r="41" spans="1:14" ht="25.05" customHeight="1">
-      <c r="A41" s="23" t="s">
+      <c r="A41" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="B41" s="23"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="23"/>
-      <c r="I41" s="23"/>
-      <c r="J41" s="23"/>
-      <c r="K41" s="23"/>
-      <c r="L41" s="23"/>
-      <c r="M41" s="23"/>
-      <c r="N41" s="23"/>
+      <c r="B41" s="31"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="31"/>
+      <c r="J41" s="31"/>
+      <c r="K41" s="31"/>
+      <c r="L41" s="31"/>
+      <c r="M41" s="31"/>
+      <c r="N41" s="31"/>
     </row>
     <row r="42" spans="1:14" ht="15" customHeight="1" thickBot="1">
-      <c r="A42" s="12"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="12"/>
-      <c r="L42" s="12"/>
-      <c r="M42" s="12"/>
-      <c r="N42" s="12"/>
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="9"/>
     </row>
     <row r="43" spans="1:14" ht="25.05" customHeight="1">
-      <c r="A43" s="23" t="s">
+      <c r="A43" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B43" s="23"/>
-      <c r="C43" s="23"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="23"/>
-      <c r="J43" s="23"/>
-      <c r="K43" s="23"/>
-      <c r="L43" s="23"/>
-      <c r="M43" s="23"/>
-      <c r="N43" s="23"/>
+      <c r="B43" s="31"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="31"/>
+      <c r="K43" s="31"/>
+      <c r="L43" s="31"/>
+      <c r="M43" s="31"/>
+      <c r="N43" s="31"/>
     </row>
     <row r="44" spans="1:14" ht="15" customHeight="1" thickBot="1">
-      <c r="A44" s="12"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="12"/>
-      <c r="J44" s="12"/>
-      <c r="K44" s="12"/>
-      <c r="L44" s="12"/>
-      <c r="M44" s="12"/>
-      <c r="N44" s="12"/>
+      <c r="A44" s="9"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="9"/>
     </row>
     <row r="45" spans="1:14" ht="25.05" customHeight="1">
-      <c r="A45" s="23" t="s">
+      <c r="A45" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B45" s="23"/>
-      <c r="C45" s="23"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="23"/>
-      <c r="G45" s="23"/>
-      <c r="H45" s="23"/>
-      <c r="I45" s="23"/>
-      <c r="J45" s="23"/>
-      <c r="K45" s="23"/>
-      <c r="L45" s="23"/>
-      <c r="M45" s="23"/>
-      <c r="N45" s="23"/>
+      <c r="B45" s="31"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="31"/>
+      <c r="H45" s="31"/>
+      <c r="I45" s="31"/>
+      <c r="J45" s="31"/>
+      <c r="K45" s="31"/>
+      <c r="L45" s="31"/>
+      <c r="M45" s="31"/>
+      <c r="N45" s="31"/>
     </row>
     <row r="46" spans="1:14" ht="15" customHeight="1" thickBot="1">
-      <c r="A46" s="12"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
-      <c r="I46" s="12"/>
-      <c r="J46" s="12"/>
-      <c r="K46" s="12"/>
-      <c r="L46" s="12"/>
-      <c r="M46" s="12"/>
-      <c r="N46" s="12"/>
+      <c r="A46" s="9"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
+      <c r="N46" s="9"/>
     </row>
     <row r="47" spans="1:14" ht="25.05" customHeight="1">
-      <c r="A47" s="23" t="s">
+      <c r="A47" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B47" s="23"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="23"/>
-      <c r="I47" s="23"/>
-      <c r="J47" s="23"/>
-      <c r="K47" s="23"/>
-      <c r="L47" s="23"/>
-      <c r="M47" s="23"/>
-      <c r="N47" s="23"/>
+      <c r="B47" s="31"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="31"/>
+      <c r="I47" s="31"/>
+      <c r="J47" s="31"/>
+      <c r="K47" s="31"/>
+      <c r="L47" s="31"/>
+      <c r="M47" s="31"/>
+      <c r="N47" s="31"/>
     </row>
     <row r="48" spans="1:14" ht="15" customHeight="1" thickBot="1">
-      <c r="A48" s="12"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="12"/>
-      <c r="I48" s="12"/>
-      <c r="J48" s="12"/>
-      <c r="K48" s="12"/>
-      <c r="L48" s="12"/>
-      <c r="M48" s="12"/>
-      <c r="N48" s="12"/>
+      <c r="A48" s="9"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="9"/>
     </row>
     <row r="49" spans="1:14" ht="25.05" customHeight="1">
-      <c r="A49" s="23" t="s">
+      <c r="A49" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="B49" s="23"/>
-      <c r="C49" s="23"/>
-      <c r="D49" s="23"/>
-      <c r="E49" s="23"/>
-      <c r="F49" s="23"/>
-      <c r="G49" s="23"/>
-      <c r="H49" s="23"/>
-      <c r="I49" s="23"/>
-      <c r="J49" s="23"/>
-      <c r="K49" s="23"/>
-      <c r="L49" s="23"/>
-      <c r="M49" s="23"/>
-      <c r="N49" s="23"/>
+      <c r="B49" s="31"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="31"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="31"/>
+      <c r="H49" s="31"/>
+      <c r="I49" s="31"/>
+      <c r="J49" s="31"/>
+      <c r="K49" s="31"/>
+      <c r="L49" s="31"/>
+      <c r="M49" s="31"/>
+      <c r="N49" s="31"/>
     </row>
     <row r="50" spans="1:14" ht="15" customHeight="1" thickBot="1">
-      <c r="A50" s="11"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="11"/>
-      <c r="H50" s="11"/>
-      <c r="I50" s="11"/>
-      <c r="J50" s="11"/>
-      <c r="K50" s="11"/>
-      <c r="L50" s="11"/>
-      <c r="M50" s="11"/>
-      <c r="N50" s="11"/>
+      <c r="A50" s="18"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="18"/>
+      <c r="J50" s="18"/>
+      <c r="K50" s="18"/>
+      <c r="L50" s="18"/>
+      <c r="M50" s="18"/>
+      <c r="N50" s="18"/>
     </row>
     <row r="51" spans="1:14" ht="25.05" customHeight="1">
-      <c r="A51" s="23" t="s">
+      <c r="A51" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B51" s="23"/>
-      <c r="C51" s="23"/>
-      <c r="D51" s="23"/>
-      <c r="E51" s="23"/>
-      <c r="F51" s="23"/>
-      <c r="G51" s="23"/>
-      <c r="H51" s="23"/>
-      <c r="I51" s="23"/>
-      <c r="J51" s="23"/>
-      <c r="K51" s="23"/>
-      <c r="L51" s="23"/>
-      <c r="M51" s="23"/>
-      <c r="N51" s="23"/>
+      <c r="B51" s="31"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="31"/>
+      <c r="K51" s="31"/>
+      <c r="L51" s="31"/>
+      <c r="M51" s="31"/>
+      <c r="N51" s="31"/>
     </row>
     <row r="52" spans="1:14" ht="15" customHeight="1" thickBot="1">
-      <c r="A52" s="12"/>
-      <c r="B52" s="12"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="12"/>
-      <c r="H52" s="12"/>
-      <c r="I52" s="12"/>
-      <c r="J52" s="12"/>
-      <c r="K52" s="12"/>
-      <c r="L52" s="12"/>
-      <c r="M52" s="12"/>
-      <c r="N52" s="12"/>
+      <c r="A52" s="9"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="9"/>
+      <c r="N52" s="9"/>
     </row>
     <row r="53" spans="1:14" s="2" customFormat="1" ht="25.05" customHeight="1">
       <c r="A53" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B53" s="22"/>
-      <c r="C53" s="22"/>
-      <c r="D53" s="22"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="22">
+      <c r="B53" s="30"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="30">
         <v>20</v>
       </c>
-      <c r="G53" s="22"/>
-      <c r="H53" s="31"/>
-      <c r="I53" s="31"/>
-      <c r="J53" s="31"/>
-      <c r="K53" s="31"/>
-      <c r="L53" s="31"/>
-      <c r="M53" s="31"/>
-      <c r="N53" s="31"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="39"/>
+      <c r="I53" s="39"/>
+      <c r="J53" s="39"/>
+      <c r="K53" s="39"/>
+      <c r="L53" s="39"/>
+      <c r="M53" s="39"/>
+      <c r="N53" s="39"/>
     </row>
     <row r="54" spans="1:14" s="2" customFormat="1" ht="25.05" customHeight="1" thickBot="1">
       <c r="A54" s="4"/>
-      <c r="B54" s="34" t="s">
+      <c r="B54" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C54" s="34"/>
-      <c r="D54" s="34"/>
-      <c r="E54" s="34"/>
-      <c r="F54" s="33"/>
-      <c r="G54" s="33"/>
-      <c r="H54" s="28" t="s">
+      <c r="C54" s="42"/>
+      <c r="D54" s="42"/>
+      <c r="E54" s="42"/>
+      <c r="F54" s="41"/>
+      <c r="G54" s="41"/>
+      <c r="H54" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="I54" s="28"/>
-      <c r="J54" s="28"/>
-      <c r="K54" s="32"/>
-      <c r="L54" s="32"/>
-      <c r="M54" s="32"/>
-      <c r="N54" s="32"/>
+      <c r="I54" s="38"/>
+      <c r="J54" s="38"/>
+      <c r="K54" s="40"/>
+      <c r="L54" s="40"/>
+      <c r="M54" s="40"/>
+      <c r="N54" s="40"/>
     </row>
     <row r="55" spans="1:14" ht="25.05" customHeight="1">
-      <c r="A55" s="30" t="s">
+      <c r="A55" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="B55" s="30"/>
-      <c r="C55" s="30"/>
-      <c r="D55" s="30"/>
-      <c r="E55" s="30"/>
-      <c r="F55" s="30"/>
-      <c r="G55" s="30"/>
-      <c r="H55" s="30"/>
-      <c r="I55" s="30"/>
-      <c r="J55" s="30"/>
-      <c r="K55" s="30"/>
-      <c r="L55" s="30"/>
-      <c r="M55" s="30"/>
-      <c r="N55" s="30"/>
+      <c r="B55" s="37"/>
+      <c r="C55" s="37"/>
+      <c r="D55" s="37"/>
+      <c r="E55" s="37"/>
+      <c r="F55" s="37"/>
+      <c r="G55" s="37"/>
+      <c r="H55" s="37"/>
+      <c r="I55" s="37"/>
+      <c r="J55" s="37"/>
+      <c r="K55" s="37"/>
+      <c r="L55" s="37"/>
+      <c r="M55" s="37"/>
+      <c r="N55" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="139">
-    <mergeCell ref="L3:N9"/>
-    <mergeCell ref="D3:J3"/>
-    <mergeCell ref="D4:J4"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="D7:J7"/>
-    <mergeCell ref="D8:J8"/>
-    <mergeCell ref="D9:J9"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="G33:J33"/>
-    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="A12:N12"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="G22:L22"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A26:N26"/>
+    <mergeCell ref="G19:L19"/>
+    <mergeCell ref="G20:L20"/>
+    <mergeCell ref="G24:L24"/>
+    <mergeCell ref="G25:L25"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="A18:N18"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="G21:L21"/>
     <mergeCell ref="C19:F19"/>
     <mergeCell ref="C20:F20"/>
     <mergeCell ref="C21:F21"/>
     <mergeCell ref="C22:F22"/>
     <mergeCell ref="C24:F24"/>
     <mergeCell ref="C25:F25"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="K34:N34"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="L29:N29"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="A26:N26"/>
-    <mergeCell ref="G19:L19"/>
-    <mergeCell ref="G20:L20"/>
+    <mergeCell ref="G23:L23"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="A55:N55"/>
@@ -1872,33 +1873,10 @@
     <mergeCell ref="L28:N28"/>
     <mergeCell ref="K35:N35"/>
     <mergeCell ref="I28:K28"/>
-    <mergeCell ref="D10:N10"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="I30:K30"/>
-    <mergeCell ref="G23:L23"/>
-    <mergeCell ref="G24:L24"/>
-    <mergeCell ref="G25:L25"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="A18:N18"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="K36:N36"/>
     <mergeCell ref="A35:C35"/>
+    <mergeCell ref="E28:H28"/>
     <mergeCell ref="A36:C36"/>
     <mergeCell ref="E27:H27"/>
     <mergeCell ref="A27:D27"/>
@@ -1909,6 +1887,15 @@
     <mergeCell ref="L27:N27"/>
     <mergeCell ref="L30:N30"/>
     <mergeCell ref="K33:N33"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="L29:N29"/>
+    <mergeCell ref="G33:J33"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="G32:J32"/>
     <mergeCell ref="A39:N39"/>
     <mergeCell ref="B53:E53"/>
     <mergeCell ref="F53:G53"/>
@@ -1918,8 +1905,6 @@
     <mergeCell ref="A43:N43"/>
     <mergeCell ref="A47:N47"/>
     <mergeCell ref="A49:N49"/>
-    <mergeCell ref="G35:J35"/>
-    <mergeCell ref="G36:J36"/>
     <mergeCell ref="G37:J37"/>
     <mergeCell ref="G38:J38"/>
     <mergeCell ref="A15:E15"/>
@@ -1943,7 +1928,7 @@
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="K38:N38"/>
     <mergeCell ref="M22:N22"/>
-    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="K36:N36"/>
     <mergeCell ref="A2:N2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A4:C4"/>
@@ -1953,13 +1938,31 @@
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="A10:C10"/>
+    <mergeCell ref="L3:N10"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="D3:J3"/>
+    <mergeCell ref="D4:J4"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="D9:J9"/>
     <mergeCell ref="D11:N11"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H13:L13"/>
     <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="A12:N12"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="G21:L21"/>
-    <mergeCell ref="G22:L22"/>
+    <mergeCell ref="M21:N21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78740157480314965" right="0.59055118110236227" top="0.59055118110236227" bottom="0.59055118110236227" header="0" footer="0"/>
